--- a/derivatives/hyp_1-1/right/corrcon-ise-ee/c2_results.xlsx
+++ b/derivatives/hyp_1-1/right/corrcon-ise-ee/c2_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/hyp_1-1/right/corrcon-ise-ee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{21F2A271-E480-CA42-8C2E-7052BBE88358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8035BAF3-6AED-594D-8246-2B891FC9CE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="4880" windowWidth="28040" windowHeight="12140"/>
+    <workbookView xWindow="10060" yWindow="500" windowWidth="18740" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="_dat_tstat_fwep_c2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="18">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="27" uniqueCount="23">
   <si>
     <t>fwep</t>
   </si>
@@ -50,53 +50,68 @@
     <t>tstat</t>
   </si>
   <si>
-    <t>IV_avg</t>
-  </si>
-  <si>
-    <t>V_avg</t>
-  </si>
-  <si>
-    <t>VI_avg</t>
-  </si>
-  <si>
-    <t>Crus_I_avg</t>
-  </si>
-  <si>
-    <t>Crus_II_avg</t>
-  </si>
-  <si>
-    <t>VIIb_avg</t>
-  </si>
-  <si>
-    <t>VIIIa_avg</t>
-  </si>
-  <si>
-    <t>VIIIb_avg</t>
-  </si>
-  <si>
-    <t>IX_avg</t>
-  </si>
-  <si>
-    <t>X_avg</t>
-  </si>
-  <si>
-    <t>Vermis_VI_avg</t>
-  </si>
-  <si>
-    <t>Vermis_VIIIa_avg</t>
-  </si>
-  <si>
-    <t>Vermis_VIIIb_avg</t>
-  </si>
-  <si>
-    <t>Vermis_IX_avg</t>
+    <t>Vermis_IX</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa</t>
+  </si>
+  <si>
+    <t>Vermis_VI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>IX</t>
+  </si>
+  <si>
+    <t>VIIIb</t>
+  </si>
+  <si>
+    <t>VIIIa</t>
+  </si>
+  <si>
+    <t>VIIb</t>
+  </si>
+  <si>
+    <t>Crus_II</t>
+  </si>
+  <si>
+    <t>Crus_I</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>0.0301*</t>
+  </si>
+  <si>
+    <t>0.0263*</t>
+  </si>
+  <si>
+    <t>0.0114*</t>
+  </si>
+  <si>
+    <t>0.0214*</t>
+  </si>
+  <si>
+    <t>0.0022**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,8 +246,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,12 +442,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <start/>
       <end/>
@@ -534,6 +568,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <start/>
+      <end/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -579,9 +622,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,247 +995,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5726</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.17710000000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.2969</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.4803</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.35E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.35E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.4299999999999996E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.5784</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.2921</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.8241999999999998</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.3001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2.8689</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3.1747999999999998</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.5726</v>
-      </c>
-      <c r="D2">
-        <v>0.17710000000000001</v>
-      </c>
-      <c r="E2">
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="F2">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="G2">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="H2">
-        <v>2.1899999999999999E-2</v>
-      </c>
-      <c r="I2">
+      <c r="C9" s="2">
         <v>0.25929999999999997</v>
       </c>
-      <c r="J2">
+      <c r="D9" s="2">
         <v>0.10829999999999999</v>
       </c>
-      <c r="K2">
+      <c r="E9" s="2">
         <v>0.13139999999999999</v>
       </c>
-      <c r="L2">
+      <c r="F9" s="2">
         <v>0.90210000000000001</v>
       </c>
-      <c r="M2">
+      <c r="G9" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="N2">
+      <c r="H9" s="2">
         <v>0.22850000000000001</v>
       </c>
-      <c r="O2">
+      <c r="I9" s="2">
         <v>3.3999999999999998E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0.89749999999999996</v>
-      </c>
-      <c r="C3">
-        <v>0.2969</v>
-      </c>
-      <c r="D3">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="F3">
-        <v>9.0899999999999995E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.63E-2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.14E-2</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="C10" s="2">
         <v>0.1321</v>
       </c>
-      <c r="J3">
+      <c r="D10" s="2">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="K3">
+      <c r="E10" s="2">
         <v>6.9199999999999998E-2</v>
       </c>
-      <c r="L3">
+      <c r="F10" s="2">
         <v>0.51290000000000002</v>
       </c>
-      <c r="M3" s="1">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="N3">
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2">
         <v>0.1167</v>
       </c>
-      <c r="O3" s="1">
-        <v>2.2000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.4803</v>
-      </c>
-      <c r="C4">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>1.35E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="F4">
-        <v>1.35E-2</v>
-      </c>
-      <c r="G4">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="H4">
-        <v>1.4E-3</v>
-      </c>
-      <c r="I4">
+      <c r="C11" s="2">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="J4">
+      <c r="D11" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K4">
+      <c r="E11" s="2">
         <v>9.7000000000000003E-3</v>
       </c>
-      <c r="L4">
+      <c r="F11" s="2">
         <v>0.1452</v>
       </c>
-      <c r="M4">
+      <c r="G11" s="2">
         <v>2.3E-3</v>
       </c>
-      <c r="N4">
+      <c r="H11" s="2">
         <v>1.78E-2</v>
       </c>
-      <c r="O4">
+      <c r="I11" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>6.4299999999999996E-2</v>
-      </c>
-      <c r="C5">
-        <v>1.5784</v>
-      </c>
-      <c r="D5">
-        <v>2.2921</v>
-      </c>
-      <c r="E5">
-        <v>2.8241999999999998</v>
-      </c>
-      <c r="F5">
-        <v>2.3001</v>
-      </c>
-      <c r="G5">
-        <v>2.8689</v>
-      </c>
-      <c r="H5">
-        <v>3.1747999999999998</v>
-      </c>
-      <c r="I5">
+      <c r="C12" s="4">
         <v>2.0871</v>
       </c>
-      <c r="J5">
+      <c r="D12" s="4">
         <v>2.5341999999999998</v>
       </c>
-      <c r="K5">
+      <c r="E12" s="4">
         <v>2.4411</v>
       </c>
-      <c r="L5">
+      <c r="F12" s="4">
         <v>1.0919000000000001</v>
       </c>
-      <c r="M5">
+      <c r="G12" s="4">
         <v>2.9405000000000001</v>
       </c>
-      <c r="N5">
+      <c r="H12" s="4">
         <v>2.1602999999999999</v>
       </c>
-      <c r="O5">
+      <c r="I12" s="4">
         <v>3.9127000000000001</v>
       </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>